--- a/projet final/projet final.xlsx
+++ b/projet final/projet final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwyy\OneDrive\Bureau\c13\projet final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCD5426-9FDB-4D52-91F9-2571BC8A3BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1981AC17-2D44-4639-A6D0-DB37D0C3D622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EF2AEB6-D772-4049-B371-37011BA76B7E}"/>
   </bookViews>
@@ -17,23 +17,31 @@
     <sheet name="simulations en mouvement" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Aarseth_1">'conditions init+ trajectoires'!$D$22</definedName>
-    <definedName name="Aarseth_2">'conditions init+ trajectoires'!$D$30</definedName>
-    <definedName name="Aarseth_3">'conditions init+ trajectoires'!$D$38</definedName>
-    <definedName name="Masse_1">'conditions init+ trajectoires'!$D$21</definedName>
-    <definedName name="Masse_2">'conditions init+ trajectoires'!$D$29</definedName>
-    <definedName name="Masse_3">'conditions init+ trajectoires'!$D$37</definedName>
-    <definedName name="px">'conditions init+ trajectoires'!$D$10</definedName>
-    <definedName name="py">'conditions init+ trajectoires'!$E$10</definedName>
-    <definedName name="q_1x">'conditions init+ trajectoires'!$D$17</definedName>
-    <definedName name="q_1y">'conditions init+ trajectoires'!$E$17</definedName>
-    <definedName name="q_2x">'conditions init+ trajectoires'!$D$25</definedName>
-    <definedName name="q_2y">'conditions init+ trajectoires'!$E$25</definedName>
-    <definedName name="q_3x">'conditions init+ trajectoires'!$D$33</definedName>
-    <definedName name="q_3y">'conditions init+ trajectoires'!$E$33</definedName>
-    <definedName name="Volume_1">'conditions init+ trajectoires'!$D$20</definedName>
-    <definedName name="Volume_2">'conditions init+ trajectoires'!$D$28</definedName>
-    <definedName name="Volume_3">'conditions init+ trajectoires'!$D$36</definedName>
+    <definedName name="Aarseth_1">'conditions init+ trajectoires'!$H$22</definedName>
+    <definedName name="Aarseth_2">'conditions init+ trajectoires'!$H$30</definedName>
+    <definedName name="Aarseth_3">'conditions init+ trajectoires'!$H$38</definedName>
+    <definedName name="ai_x">'conditions init+ trajectoires'!$H$12</definedName>
+    <definedName name="ai_y">'conditions init+ trajectoires'!$I$12</definedName>
+    <definedName name="bt">'conditions init+ trajectoires'!$H$4</definedName>
+    <definedName name="Masse_1">'conditions init+ trajectoires'!$H$21</definedName>
+    <definedName name="Masse_2">'conditions init+ trajectoires'!$H$29</definedName>
+    <definedName name="Masse_3">'conditions init+ trajectoires'!$H$37</definedName>
+    <definedName name="pi_x">'conditions init+ trajectoires'!$H$10</definedName>
+    <definedName name="pi_y">'conditions init+ trajectoires'!$I$10</definedName>
+    <definedName name="q_1x">'conditions init+ trajectoires'!$H$17</definedName>
+    <definedName name="q_1y">'conditions init+ trajectoires'!$I$17</definedName>
+    <definedName name="q_2x">'conditions init+ trajectoires'!$H$25</definedName>
+    <definedName name="q_2y">'conditions init+ trajectoires'!$I$25</definedName>
+    <definedName name="q_3x">'conditions init+ trajectoires'!$H$33</definedName>
+    <definedName name="q_3y">'conditions init+ trajectoires'!$I$33</definedName>
+    <definedName name="r_1">'conditions init+ trajectoires'!$H$18</definedName>
+    <definedName name="r_2">'conditions init+ trajectoires'!$H$26</definedName>
+    <definedName name="r_3">'conditions init+ trajectoires'!$H$34</definedName>
+    <definedName name="vi_x">'conditions init+ trajectoires'!$H$11</definedName>
+    <definedName name="vi_y">'conditions init+ trajectoires'!$I$11</definedName>
+    <definedName name="Volume_1">'conditions init+ trajectoires'!$H$20</definedName>
+    <definedName name="Volume_2">'conditions init+ trajectoires'!$H$28</definedName>
+    <definedName name="Volume_3">'conditions init+ trajectoires'!$H$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="67">
   <si>
     <t xml:space="preserve">parametres génereaux </t>
   </si>
@@ -620,6 +628,24 @@
   <si>
     <t>Corps 3</t>
   </si>
+  <si>
+    <t>Px</t>
+  </si>
+  <si>
+    <t>Py</t>
+  </si>
+  <si>
+    <t>Vx</t>
+  </si>
+  <si>
+    <t>Vy</t>
+  </si>
+  <si>
+    <t>Ax</t>
+  </si>
+  <si>
+    <t>Ay</t>
+  </si>
 </sst>
 </file>
 
@@ -689,7 +715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -803,9 +829,7 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -816,41 +840,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thick">
         <color indexed="64"/>
@@ -869,6 +858,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -877,7 +927,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -887,23 +937,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,8 +965,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -943,14 +1006,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>701040</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2247900" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="ZoneTexte 1">
@@ -1226,7 +1289,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="ZoneTexte 1">
@@ -1268,6 +1331,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="fr-CA" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1298,71 +1362,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(𝑞_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−𝑝_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑦</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-CA" sz="1100" b="0" i="0" baseline="30000">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
+                <a:t>(𝑞_𝑦−𝑝_𝑦 )</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fr-CA" sz="1100" b="0" i="0" baseline="30000">
@@ -1374,7 +1378,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)</a:t>
+                <a:t>2)</a:t>
               </a:r>
               <a:endParaRPr lang="fr-CA" sz="1100"/>
             </a:p>
@@ -1386,7 +1390,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>678180</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
@@ -1829,7 +1833,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>58615</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>120894</xdr:rowOff>
@@ -2288,7 +2292,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>40298</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>172183</xdr:rowOff>
@@ -2914,14 +2918,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>701040</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2247900" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="ZoneTexte 13">
@@ -3197,7 +3201,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="ZoneTexte 13">
@@ -3298,14 +3302,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>678180</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2247900" cy="312420"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="ZoneTexte 14">
@@ -3581,7 +3585,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="ZoneTexte 14">
@@ -3682,14 +3686,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>58615</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>120894</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2247900" cy="329712"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="ZoneTexte 15">
@@ -3970,7 +3974,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="ZoneTexte 15">
@@ -4081,14 +4085,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>40298</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>172183</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2247900" cy="315057"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="ZoneTexte 16">
@@ -4481,7 +4485,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="ZoneTexte 16">
@@ -4671,14 +4675,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>701040</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2247900" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="ZoneTexte 17">
@@ -4954,7 +4958,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="ZoneTexte 17">
@@ -5055,14 +5059,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>678180</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2247900" cy="312420"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="ZoneTexte 18">
@@ -5338,7 +5342,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="ZoneTexte 18">
@@ -5439,14 +5443,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>58615</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>120894</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2247900" cy="329712"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="ZoneTexte 19">
@@ -5727,7 +5731,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="ZoneTexte 19">
@@ -5838,14 +5842,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>40298</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>172183</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2247900" cy="315057"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="ZoneTexte 20">
@@ -6238,7 +6242,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="ZoneTexte 20">
@@ -6428,14 +6432,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>342901</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>2931</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="378069" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="ZoneTexte 21">
@@ -6526,7 +6530,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="ZoneTexte 21">
@@ -6587,14 +6591,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>328246</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>5862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="378069" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="ZoneTexte 22">
@@ -6685,7 +6689,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="ZoneTexte 22">
@@ -6737,6 +6741,164 @@
                 <a:rPr lang="fr-CA" sz="1100"/>
                 <a:t>=</a:t>
               </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>736601</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>143934</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="838199" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="ZoneTexte 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E982BEA-7A0C-4E95-B1E0-4B5469DCB18A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9017001" y="143934"/>
+              <a:ext cx="838199" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="fr-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="fr-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="fr-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑎</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="fr-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="fr-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="ZoneTexte 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E982BEA-7A0C-4E95-B1E0-4B5469DCB18A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9017001" y="143934"/>
+              <a:ext cx="838199" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝑎_𝑖 ) ⃑</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-CA" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -7044,794 +7206,6301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376F0EB7-575B-4868-8967-13BA8B3D084B}">
-  <dimension ref="B2:S38"/>
+  <dimension ref="A1:W1048"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="76" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.44140625" customWidth="1"/>
-    <col min="18" max="18" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.44140625" customWidth="1"/>
+    <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:19" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+    <row r="1" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q1">
+        <f>O4</f>
+        <v>182212373908208</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="2:23" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="J3" s="1" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="N3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="R3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22" t="s">
+      <c r="S3" s="19"/>
+      <c r="T3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>59</v>
       </c>
-      <c r="S3" t="s">
+      <c r="W3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="25">
+      <c r="H4" s="24">
         <v>0.5</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <f>Masse_1</f>
-        <v>1570796326794.8965</v>
-      </c>
-      <c r="M4" s="21">
-        <f>q_1x-px</f>
-        <v>20000</v>
-      </c>
-      <c r="O4" s="21">
-        <f>SQRT((q_1x-px)^2+(q_1y-py)^2)+Aarseth_1^2</f>
-        <v>100021360.00936329</v>
-      </c>
-      <c r="Q4">
-        <f>(O4)^3/2</f>
-        <v>5.0032046858282209E+23</v>
-      </c>
-      <c r="S4" s="23">
-        <f>K4*(M4/Q4)</f>
-        <v>6.2791607596796519E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+        <v>182212373908208</v>
+      </c>
+      <c r="Q4" s="18">
+        <f>q_1x-F48</f>
+        <v>-9000</v>
+      </c>
+      <c r="S4" s="18">
+        <f>SQRT((q_1x-F48)^2+(q_1y-G48)^2)+Aarseth_1^2</f>
+        <v>56271931.712199464</v>
+      </c>
+      <c r="U4">
+        <f>(S4)^3/2</f>
+        <v>8.909338836434624E+22</v>
+      </c>
+      <c r="W4" s="20">
+        <f>O4*(Q4/U4)</f>
+        <v>-1.8406656153512491E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="24">
-        <v>2</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="R5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="P5" t="s">
+      <c r="T5" t="s">
         <v>58</v>
       </c>
-      <c r="R5" t="s">
+      <c r="V5" t="s">
         <v>59</v>
       </c>
-      <c r="S5" t="s">
+      <c r="W5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="K6">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="O6">
         <f>Masse_1</f>
-        <v>1570796326794.8965</v>
-      </c>
-      <c r="M6" s="21">
-        <f>q_1y-py</f>
-        <v>7500</v>
-      </c>
-      <c r="O6" s="21">
-        <f>SQRT((q_1x-px)^2+(q_1y-py)^2)+Aarseth_1^2</f>
-        <v>100021360.00936329</v>
-      </c>
-      <c r="Q6">
-        <f>(O6)^3/2</f>
-        <v>5.0032046858282209E+23</v>
-      </c>
-      <c r="S6">
-        <f>K6*(M6/Q6)</f>
-        <v>2.3546852848798698E-8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+        <v>182212373908208</v>
+      </c>
+      <c r="Q6" s="18">
+        <f>q_1y-pi_y</f>
+        <v>-20000</v>
+      </c>
+      <c r="S6" s="18">
+        <f>SQRT((q_1x-pi_x)^2+(q_1y-pi_y)^2)+Aarseth_1^2</f>
+        <v>56271931.712199464</v>
+      </c>
+      <c r="U6">
+        <f>(S6)^3/2</f>
+        <v>8.909338836434624E+22</v>
+      </c>
+      <c r="W6">
+        <f>O6*(Q6/U6)</f>
+        <v>-4.0903680341138872E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="36"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:19" ht="27.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:23" ht="27.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="J8" s="28" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="N8" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="R8" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22" t="s">
+      <c r="S8" s="19"/>
+      <c r="T8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R8" t="s">
+      <c r="V8" t="s">
         <v>59</v>
       </c>
-      <c r="S8" t="s">
+      <c r="W8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="27">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K9">
+      <c r="O9">
         <f>Masse_2</f>
         <v>179594380030.21649</v>
       </c>
-      <c r="M9" s="21">
-        <f>q_2x-px</f>
+      <c r="Q9" s="18">
+        <f>q_2x-pi_x</f>
         <v>-2</v>
       </c>
-      <c r="O9" s="21">
-        <f>SQRT((q_2x-px)^2+(q_2y-py)^2)+Aarseth_2^2</f>
-        <v>49010000.000200003</v>
-      </c>
-      <c r="Q9">
-        <f>(O9)^3/2</f>
-        <v>5.8860522351220608E+22</v>
-      </c>
-      <c r="S9" s="23">
-        <f>K9*(M9/Q9)</f>
-        <v>-6.1023712619666271E-12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+      <c r="S9" s="18">
+        <f>SQRT((q_2x-pi_x)^2+(q_2y-pi_y)^2)+Aarseth_2^2</f>
+        <v>27562502</v>
+      </c>
+      <c r="U9">
+        <f>(S9)^3/2</f>
+        <v>1.0469499471457197E+22</v>
+      </c>
+      <c r="W9" s="20">
+        <f>O9*(Q9/U9)</f>
+        <v>-3.430811196272397E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="20">
+      <c r="H10" s="17">
         <v>0</v>
       </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="N10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L10" t="s">
+      <c r="P10" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="R10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="P10" t="s">
+      <c r="T10" t="s">
         <v>58</v>
       </c>
-      <c r="R10" t="s">
+      <c r="V10" t="s">
         <v>59</v>
       </c>
-      <c r="S10" t="s">
+      <c r="W10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="16">
+        <v>-600</v>
+      </c>
+      <c r="I11" s="16">
+        <v>400</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K11">
+      <c r="O11">
         <f>Masse_2</f>
         <v>179594380030.21649</v>
       </c>
-      <c r="M11" s="21">
-        <f>q_2y-py</f>
-        <v>10000</v>
-      </c>
-      <c r="O11" s="21">
-        <f>SQRT((q_2x-px)^2+(q_2y-py)^2)+Aarseth_2^2</f>
-        <v>49010000.000200003</v>
-      </c>
-      <c r="Q11">
-        <f>(O11)^3/2</f>
-        <v>5.8860522351220608E+22</v>
-      </c>
-      <c r="S11">
-        <f>K11*(M11/Q11)</f>
-        <v>3.0511856309833134E-8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+      <c r="Q11" s="18">
+        <f>q_2y-pi_y</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="18">
+        <f>SQRT((q_2x-pi_x)^2+(q_2y-pi_y)^2)+Aarseth_2^2</f>
+        <v>27562502</v>
+      </c>
+      <c r="U11">
+        <f>(S11)^3/2</f>
+        <v>1.0469499471457197E+22</v>
+      </c>
+      <c r="W11">
+        <f>O11*(Q11/U11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="19">
+      <c r="H12" s="16">
         <v>0</v>
       </c>
-      <c r="E12" s="19">
+      <c r="I12" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J13" s="29" t="s">
+    <row r="13" spans="2:23" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="3"/>
+      <c r="N13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L13" t="s">
+      <c r="P13" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="R13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22" t="s">
+      <c r="S13" s="19"/>
+      <c r="T13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R13" t="s">
+      <c r="V13" t="s">
         <v>59</v>
       </c>
-      <c r="S13" t="s">
+      <c r="W13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K14">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="O14">
         <f>Masse_3</f>
         <v>523598775598.29883</v>
       </c>
-      <c r="M14" s="21">
-        <f>q_3x-px</f>
+      <c r="Q14" s="18">
+        <f>q_3x-pi_x</f>
         <v>-5000</v>
       </c>
-      <c r="O14" s="21">
-        <f>SQRT((q_3x-px)^2+(q_3y-py)^2)+Aarseth_3^2</f>
-        <v>100015811.38830084</v>
-      </c>
-      <c r="Q14">
-        <f>(O14)^3/2</f>
-        <v>5.0023720832648903E+23</v>
-      </c>
-      <c r="S14" s="23">
-        <f>K14*(M14/Q14)</f>
-        <v>-5.2335048941077808E-9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="s">
+      <c r="S14" s="18">
+        <f>SQRT((q_3x-pi_x)^2+(q_3y-pi_y)^2)+Aarseth_3^2</f>
+        <v>56275495.097567961</v>
+      </c>
+      <c r="U14">
+        <f>(S14)^3/2</f>
+        <v>8.9110314787758842E+22</v>
+      </c>
+      <c r="W14" s="20">
+        <f>O14*(Q14/U14)</f>
+        <v>-2.9379246209902633E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="J15" s="29" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="N15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L15" t="s">
+      <c r="P15" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="R15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="P15" t="s">
+      <c r="T15" t="s">
         <v>58</v>
       </c>
-      <c r="R15" t="s">
+      <c r="V15" t="s">
         <v>59</v>
       </c>
-      <c r="S15" t="s">
+      <c r="W15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="8"/>
-      <c r="K16">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="8"/>
+      <c r="O16">
         <f>Masse_3</f>
         <v>523598775598.29883</v>
       </c>
-      <c r="M16" s="21">
-        <f>q_3y-py</f>
+      <c r="Q16" s="18">
+        <f>q_3y-pi_y</f>
+        <v>-25000</v>
+      </c>
+      <c r="S16" s="18">
+        <f>SQRT((q_3x-pi_x)^2+(q_3y-pi_y)^2)+Aarseth_3^2</f>
+        <v>56275495.097567961</v>
+      </c>
+      <c r="U16">
+        <f>(S16)^3/2</f>
+        <v>8.9110314787758842E+22</v>
+      </c>
+      <c r="W16">
+        <f>O16*(Q16/U16)</f>
+        <v>-1.4689623104951314E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="23">
+        <v>5000</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="20">
+        <f>W4+W9+W14</f>
+        <v>-1.8436069707834354E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="B19" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="23">
+        <v>348</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19">
+        <f>W6+W11+W16</f>
+        <v>-4.1050576572188385E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="B20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="23">
+        <f>4/3*PI()*(H18)^3</f>
+        <v>523598775598.29883</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="23">
+        <f>H19*H20</f>
+        <v>182212373908208</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21">
+        <f>(q_1y-pi_y)/(SQRT((q_1x-pi_x)^2+(q_1y-pi_y)^2)+Aarseth_1^2)^3/2</f>
+        <v>-5.6120887215026169E-20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="23">
+        <f>H18*H5</f>
+        <v>7500</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="40"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+    </row>
+    <row r="23" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="32"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="31"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+    </row>
+    <row r="24" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="2:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B25" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="40"/>
+    </row>
+    <row r="26" spans="2:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B26" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="23">
+        <v>3500</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="40"/>
+    </row>
+    <row r="27" spans="2:23" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="B27" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="23">
+        <v>1</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="B28" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="23">
+        <f>4/3*PI()*(H26)^3</f>
+        <v>179594380030.21649</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B29" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="23">
+        <f>H27*H28</f>
+        <v>179594380030.21649</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B30" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="23">
+        <f>H26*H5</f>
+        <v>5250</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="32"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B33" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-15000</v>
       </c>
-      <c r="O16" s="21">
-        <f>SQRT((q_3x-px)^2+(q_3y-py)^2)+Aarseth_3^2</f>
-        <v>100015811.38830084</v>
-      </c>
-      <c r="Q16">
-        <f>(O16)^3/2</f>
-        <v>5.0023720832648903E+23</v>
-      </c>
-      <c r="S16">
-        <f>K16*(M16/Q16)</f>
-        <v>-1.5700514682323344E-8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
+      <c r="J33" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B34" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="23">
+        <v>5000</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="B35" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="23">
+        <v>1</v>
+      </c>
+      <c r="I35" s="23"/>
+      <c r="J35" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="B36" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="23">
+        <f>4/3*PI()*(H34)^3</f>
+        <v>523598775598.29883</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B37" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="23">
+        <f>H35*H36</f>
+        <v>523598775598.29883</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B38" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="23">
+        <f>H34*H5</f>
+        <v>7500</v>
+      </c>
+      <c r="I38" s="23"/>
+      <c r="J38" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>pi_x</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="42">
+        <f>pi_y</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" s="41">
+        <f>q_1x-F48</f>
+        <v>-9000</v>
+      </c>
+      <c r="C49">
+        <f>(SQRT((q_1x-F48)^2+(q_1y-G48)^2)+Aarseth_1^2)^3/2</f>
+        <v>8.909338836434624E+22</v>
+      </c>
+      <c r="D49" s="41">
+        <f>q_1y-G48</f>
+        <v>-20000</v>
+      </c>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42">
+        <f>F48+(H49*$H$4)+((1/2)*ai_x*$H$4^2)</f>
+        <v>-300</v>
+      </c>
+      <c r="G49" s="42">
+        <f>G48+(I49*$H$4)+(0.5*K49)*$H$4^2</f>
+        <v>10199.999994868678</v>
+      </c>
+      <c r="H49">
+        <f>vi_x</f>
+        <v>-600</v>
+      </c>
+      <c r="I49">
+        <f>vi_y</f>
+        <v>400</v>
+      </c>
+      <c r="J49" s="20">
+        <f>O18</f>
+        <v>-1.8436069707834354E-5</v>
+      </c>
+      <c r="K49" s="42">
+        <f>O19+ai_y</f>
+        <v>-4.1050576572188385E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" s="41">
+        <f>q_1x-F49</f>
+        <v>-8700</v>
+      </c>
+      <c r="C50">
+        <f>(SQRT((q_1x-F50)^2+(q_1y-G50)^2)+Aarseth_1^2)^3/2</f>
+        <v>8.9094005931144276E+22</v>
+      </c>
+      <c r="D50">
+        <f>q_1y-G49</f>
+        <v>-20199.999994868678</v>
+      </c>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41">
+        <f>F49+(H50*$H$4)+(0.5*J50)*$H$4^2</f>
+        <v>-600.00000690984939</v>
+      </c>
+      <c r="G50" s="42">
+        <f>G49+(I49*$H$4)+(0.5*K49)*$H$4^2</f>
+        <v>10399.999989737356</v>
+      </c>
+      <c r="H50" s="20">
+        <f>H49+J49*$H$4</f>
+        <v>-600.00000921803485</v>
+      </c>
+      <c r="I50">
+        <f>I49+K49*$H$4</f>
+        <v>399.99997947471172</v>
+      </c>
+      <c r="J50" s="42">
+        <f>Masse_1*(B49/C49)</f>
+        <v>-1.8406656153512491E-5</v>
+      </c>
+      <c r="K50" s="41">
+        <f>Masse_1*(D49/C49)</f>
+        <v>-4.0903680341138872E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="20">
+        <f>H50+J50*$H$4</f>
+        <v>-600.00001842136294</v>
+      </c>
+      <c r="I51">
+        <f>I50+K50*$H$4</f>
+        <v>399.99995902287156</v>
+      </c>
+      <c r="J51" s="42">
+        <f>Masse_1*(B50/C50)</f>
+        <v>-1.7792977613180375E-5</v>
+      </c>
+      <c r="K51" s="41">
+        <f>Masse_1*(D50/C50)</f>
+        <v>-4.1312430769533569E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="G52" s="42"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="41"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="41"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="41"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="41"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="41"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>9</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="B57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="41"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="41"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="41"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="41"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>13</v>
+      </c>
+      <c r="B61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="41"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>14</v>
+      </c>
+      <c r="B62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="41"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>15</v>
+      </c>
+      <c r="B63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="41"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="41"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>17</v>
+      </c>
+      <c r="B65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="41"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>18</v>
+      </c>
+      <c r="B66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="41"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>19</v>
+      </c>
+      <c r="B67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="41"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>20</v>
+      </c>
+      <c r="B68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="41"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>21</v>
+      </c>
+      <c r="B69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="41"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>22</v>
+      </c>
+      <c r="B70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="41"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>23</v>
+      </c>
+      <c r="B71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="41"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>24</v>
+      </c>
+      <c r="B72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="41"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>25</v>
+      </c>
+      <c r="B73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="41"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>26</v>
+      </c>
+      <c r="B74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="41"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>27</v>
+      </c>
+      <c r="B75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="41"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>28</v>
+      </c>
+      <c r="B76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="41"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>29</v>
+      </c>
+      <c r="B77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="41"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>30</v>
+      </c>
+      <c r="B78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="41"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>31</v>
+      </c>
+      <c r="B79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="41"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>32</v>
+      </c>
+      <c r="B80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="41"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>33</v>
+      </c>
+      <c r="B81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="41"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>34</v>
+      </c>
+      <c r="B82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="41"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>35</v>
+      </c>
+      <c r="B83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="41"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>36</v>
+      </c>
+      <c r="B84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="41"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>37</v>
+      </c>
+      <c r="B85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="41"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>38</v>
       </c>
-      <c r="D17" s="3">
-        <v>20000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="24">
-        <v>5000</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="23">
-        <f>S4+S9+S14</f>
-        <v>5.7552000331426765E-8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="41"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>39</v>
       </c>
-      <c r="D19" s="24">
-        <v>3</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19">
-        <f>S6+S11+S16</f>
-        <v>3.8358194476308484E-8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="41"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>40</v>
       </c>
-      <c r="D20" s="24">
-        <f>4/3*PI()*(D18)^3</f>
-        <v>523598775598.29883</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="41"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>41</v>
       </c>
-      <c r="D21" s="24">
-        <f>D19*D20</f>
-        <v>1570796326794.8965</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="41"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>42</v>
       </c>
-      <c r="D22" s="24">
-        <f>D18*D5</f>
-        <v>10000</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="24">
-        <v>3500</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="24">
-        <f>4/3*PI()*(D26)^3</f>
-        <v>179594380030.21649</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="24">
-        <f>D27*D28</f>
-        <v>179594380030.21649</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="24">
-        <f>D26*D5</f>
-        <v>7000</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>60</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="24">
-        <v>5000</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="24">
-        <v>1</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="24">
-        <f>4/3*PI()*(D34)^3</f>
-        <v>523598775598.29883</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="24">
-        <f>D35*D36</f>
-        <v>523598775598.29883</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="24">
-        <f>D34*D5</f>
-        <v>10000</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="7" t="s">
-        <v>22</v>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1003">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1004">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1005">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1006">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1007">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1008">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1009">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1010">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1011">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1012">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1013">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1014">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1015">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1016">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1017">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1018">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1019">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1020">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1021">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1022">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1023">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1024">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1025">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1026">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1027">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1028">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1029">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1030">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1031">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1032">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1033">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1034">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1035">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1036">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1037">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1038">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1039">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1040">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1041">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1042">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1043">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1044">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1045">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1046">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1047">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
+  <mergeCells count="60">
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7937,8 +13606,8 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
       <c r="F18" t="s">
         <v>22</v>
       </c>
@@ -7950,8 +13619,8 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
       <c r="F19" t="s">
         <v>29</v>
       </c>
@@ -7963,8 +13632,8 @@
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="F20" t="s">
         <v>30</v>
       </c>
@@ -7976,8 +13645,8 @@
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="F21" t="s">
         <v>31</v>
       </c>
@@ -7989,8 +13658,8 @@
       <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
       <c r="F22" t="s">
         <v>22</v>
       </c>
@@ -8018,8 +13687,8 @@
       <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="F25" t="s">
         <v>22</v>
       </c>
@@ -8031,8 +13700,8 @@
       <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
       <c r="F26" t="s">
         <v>29</v>
       </c>
@@ -8044,8 +13713,8 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="F27" t="s">
         <v>30</v>
       </c>
@@ -8057,8 +13726,8 @@
       <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="F28" t="s">
         <v>31</v>
       </c>
@@ -8070,8 +13739,8 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" t="s">
         <v>22</v>
       </c>
@@ -8099,8 +13768,8 @@
       <c r="C32" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
       <c r="F32" t="s">
         <v>22</v>
       </c>
@@ -8112,8 +13781,8 @@
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="F33" t="s">
         <v>29</v>
       </c>
@@ -8125,8 +13794,8 @@
       <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
       <c r="F34" t="s">
         <v>30</v>
       </c>
@@ -8138,8 +13807,8 @@
       <c r="C35" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
       <c r="F35" t="s">
         <v>31</v>
       </c>
@@ -8151,8 +13820,8 @@
       <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
       <c r="F36" t="s">
         <v>22</v>
       </c>
